--- a/Predictions/Week 1/Week 1.xlsx
+++ b/Predictions/Week 1/Week 1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\greg_yonan\Desktop\Tools\Programs\NFL\2025 Season\Predictions\Week 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939FBA27-B36A-4A5D-8388-07BAF0B007D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A55A52F-440A-4105-8957-2B17979A0368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27015" yWindow="1245" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -46,94 +46,94 @@
     <t>Dallas Cowboys</t>
   </si>
   <si>
+    <t>Philadelphia Eagles</t>
+  </si>
+  <si>
     <t>Kansas City Chiefs</t>
   </si>
   <si>
+    <t>Los Angeles Chargers</t>
+  </si>
+  <si>
     <t>Tampa Bay Buccaneers</t>
   </si>
   <si>
+    <t>Atlanta Falcons</t>
+  </si>
+  <si>
     <t>Cincinnati Bengals</t>
   </si>
   <si>
+    <t>Cleveland Browns</t>
+  </si>
+  <si>
     <t>Miami Dolphins</t>
   </si>
   <si>
+    <t>Indianapolis Colts</t>
+  </si>
+  <si>
     <t>Carolina Panthers</t>
   </si>
   <si>
+    <t>Jacksonville Jaguars</t>
+  </si>
+  <si>
     <t>Arizona Cardinals</t>
   </si>
   <si>
+    <t>New Orleans Saints</t>
+  </si>
+  <si>
     <t>Las Vegas Raiders</t>
   </si>
   <si>
+    <t>New England Patriots</t>
+  </si>
+  <si>
     <t>Pittsburgh Steelers</t>
   </si>
   <si>
+    <t>New York Jets</t>
+  </si>
+  <si>
     <t>New York Giants</t>
   </si>
   <si>
+    <t>Washington Commanders</t>
+  </si>
+  <si>
     <t>Tennessee Titans</t>
   </si>
   <si>
+    <t>Denver Broncos</t>
+  </si>
+  <si>
     <t>San Francisco 49ers</t>
   </si>
   <si>
+    <t>Seattle Seahawks</t>
+  </si>
+  <si>
     <t>Detroit Lions</t>
   </si>
   <si>
+    <t>Green Bay Packers</t>
+  </si>
+  <si>
     <t>Houston Texans</t>
   </si>
   <si>
+    <t>Los Angeles Rams</t>
+  </si>
+  <si>
     <t>Baltimore Ravens</t>
   </si>
   <si>
+    <t>Buffalo Bills</t>
+  </si>
+  <si>
     <t>Minnesota Vikings</t>
-  </si>
-  <si>
-    <t>Philadelphia Eagles</t>
-  </si>
-  <si>
-    <t>Los Angeles Chargers</t>
-  </si>
-  <si>
-    <t>Atlanta Falcons</t>
-  </si>
-  <si>
-    <t>Cleveland Browns</t>
-  </si>
-  <si>
-    <t>Indianapolis Colts</t>
-  </si>
-  <si>
-    <t>Jacksonville Jaguars</t>
-  </si>
-  <si>
-    <t>New Orleans Saints</t>
-  </si>
-  <si>
-    <t>New England Patriots</t>
-  </si>
-  <si>
-    <t>New York Jets</t>
-  </si>
-  <si>
-    <t>Washington Commanders</t>
-  </si>
-  <si>
-    <t>Denver Broncos</t>
-  </si>
-  <si>
-    <t>Seattle Seahawks</t>
-  </si>
-  <si>
-    <t>Green Bay Packers</t>
-  </si>
-  <si>
-    <t>Los Angeles Rams</t>
-  </si>
-  <si>
-    <t>Buffalo Bills</t>
   </si>
   <si>
     <t>Chicago Bears</t>
@@ -154,10 +154,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -169,48 +166,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFDA9694"/>
+        <bgColor rgb="FFDA9694"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF95B3D7"/>
+        <bgColor rgb="FF95B3D7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF66"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFF66"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFB1A0C7"/>
+        <bgColor rgb="FFB1A0C7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D79B"/>
+        <bgColor rgb="FFC4D79B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFABF8F"/>
+        <bgColor rgb="FFFABF8F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -234,70 +231,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -305,46 +254,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFFFFF66"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -645,404 +585,405 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G10" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="B11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="C11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="B12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="C12" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="D12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="B13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="D13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="B14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="C14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="B15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="G15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="4" t="s">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="C16" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="D16" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="4" t="s">
+      <c r="E16" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="F16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="B17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="9" t="s">
         <v>38</v>
       </c>
     </row>

--- a/Predictions/Week 1/Week 1.xlsx
+++ b/Predictions/Week 1/Week 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\greg_yonan\Desktop\Tools\Programs\NFL\2025 Season\Predictions\Week 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A55A52F-440A-4105-8957-2B17979A0368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC473630-8EDE-49DF-BB01-CE102551F746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -586,7 +586,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Predictions/Week 1/Week 1.xlsx
+++ b/Predictions/Week 1/Week 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\greg_yonan\Desktop\Tools\Programs\NFL\2025 Season\Predictions\Week 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC473630-8EDE-49DF-BB01-CE102551F746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6D9B12-FC33-45BA-A235-75A2161ADC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,6 +204,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFBFBFBF"/>
         <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -254,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -279,6 +285,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,19 +659,19 @@
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -718,16 +728,16 @@
       <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -741,16 +751,16 @@
       <c r="B7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="8" t="s">
@@ -790,7 +800,7 @@
       <c r="C9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -879,16 +889,16 @@
       <c r="B13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="10" t="s">
         <v>30</v>
       </c>
       <c r="G13" s="8" t="s">
@@ -902,19 +912,19 @@
       <c r="B14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -925,7 +935,7 @@
       <c r="B15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -934,7 +944,7 @@
       <c r="E15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="10" t="s">
         <v>33</v>
       </c>
       <c r="G15" s="8" t="s">
@@ -960,7 +970,7 @@
       <c r="F16" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="10" t="s">
         <v>35</v>
       </c>
     </row>
@@ -983,8 +993,25 @@
       <c r="F17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="11" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="13">
+        <v>0.625</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.625</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
